--- a/todo.xlsx
+++ b/todo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
   <si>
     <t>Deadline datum</t>
   </si>
@@ -39,9 +39,6 @@
     <t>1 - Hardware</t>
   </si>
   <si>
-    <t>8 en 8b</t>
-  </si>
-  <si>
     <t>S</t>
   </si>
   <si>
@@ -91,6 +88,57 @@
   </si>
   <si>
     <t>1 - overdrachtsrapportage</t>
+  </si>
+  <si>
+    <t>Weerstation slaat temperatuur en lichtsterkte op in een circulaire buffer.</t>
+  </si>
+  <si>
+    <t>Weerstation laat een rode LED branden wanneer de temperatuur boven de bovengrens is.</t>
+  </si>
+  <si>
+    <t>Weerstation laat een gele LED branden wanneer de temperatuur onder de ondergrens is.</t>
+  </si>
+  <si>
+    <t>Weerstation laat een groene LED branden wanneer de temperatuur binnen de grenzen is.</t>
+  </si>
+  <si>
+    <t>8b</t>
+  </si>
+  <si>
+    <t>Weerstation kan met een Rest API om meetdata worden gevraagd</t>
+  </si>
+  <si>
+    <t>Gateway wordt op een Raspberry Pi geïmplementeerd.</t>
+  </si>
+  <si>
+    <t>Een gateway kan twee weerstations bedienen.</t>
+  </si>
+  <si>
+    <t>Meetdata worden als gemiddelde van data in circulaire buffers geleverd.</t>
+  </si>
+  <si>
+    <t>Gateway voorziet iedere aangesloten weerstation van unieke ID.</t>
+  </si>
+  <si>
+    <t>Gateway slaat ontvangen data op met de juiste time stamp.</t>
+  </si>
+  <si>
+    <t>Weerstation toont de correcte temperatuur, zonodig gebruikmakend van de Steinhart-Hart vergelijking.</t>
+  </si>
+  <si>
+    <t>Boven- en ondergrens zijn met een Rest API op de Arduino in te stellen.</t>
+  </si>
+  <si>
+    <t>Weerstation stuurt iedere minuut meetdata naar Gateway</t>
+  </si>
+  <si>
+    <t>Weerstation toont de huidige meetdata op een webpagina</t>
+  </si>
+  <si>
+    <t>Een gateway kan meer dan twee weerstations bedienen.</t>
+  </si>
+  <si>
+    <t>Gateway stuurt periodiek meetdata naar centrale server</t>
   </si>
 </sst>
 </file>
@@ -159,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -174,6 +222,7 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -454,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" activeCellId="1" sqref="A27 C12"/>
+      <selection activeCell="E6" activeCellId="1" sqref="E5 E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -482,11 +531,11 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -502,7 +551,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
@@ -510,7 +559,7 @@
       <c r="E2" s="7"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -526,7 +575,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -534,7 +583,7 @@
       <c r="E3" s="8"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -547,14 +596,14 @@
         <v>43382</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="9"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -570,15 +619,15 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="8"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -594,15 +643,15 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="8"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -618,15 +667,15 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -641,7 +690,9 @@
       <c r="B8" s="4">
         <v>6</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>4</v>
       </c>
@@ -661,7 +712,9 @@
       <c r="B9" s="4">
         <v>7</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
@@ -678,10 +731,12 @@
       <c r="A10" s="1">
         <v>43353</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1"/>
+      <c r="B10" s="5">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="D10" s="1" t="s">
         <v>4</v>
       </c>
@@ -695,13 +750,15 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="4">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1"/>
+      <c r="A11" s="1">
+        <v>43353</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="D11" s="1" t="s">
         <v>4</v>
       </c>
@@ -716,12 +773,14 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>14</v>
-      </c>
-      <c r="C12" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="D12" s="1" t="s">
         <v>4</v>
       </c>
@@ -735,13 +794,15 @@
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>43385</v>
+      <c r="A13" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B13" s="4">
-        <v>16</v>
-      </c>
-      <c r="C13" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="D13" s="1" t="s">
         <v>4</v>
       </c>
@@ -756,14 +817,16 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>43396</v>
+        <v>43385</v>
       </c>
       <c r="B14" s="4">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="D14" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="1"/>
@@ -779,11 +842,13 @@
         <v>43396</v>
       </c>
       <c r="B15" s="4">
-        <v>17</v>
-      </c>
-      <c r="C15" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="D15" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="1"/>
@@ -799,11 +864,13 @@
         <v>43396</v>
       </c>
       <c r="B16" s="4">
-        <v>19</v>
-      </c>
-      <c r="C16" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="D16" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="1"/>
@@ -816,14 +883,16 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>43397</v>
+        <v>43396</v>
       </c>
       <c r="B17" s="4">
-        <v>4</v>
-      </c>
-      <c r="C17" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D17" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="1"/>
@@ -839,13 +908,15 @@
         <v>43397</v>
       </c>
       <c r="B18" s="4">
-        <v>9</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="8"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -856,14 +927,16 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>43398</v>
+        <v>43397</v>
       </c>
       <c r="B19" s="4">
-        <v>11</v>
-      </c>
-      <c r="C19" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D19" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="1"/>
@@ -879,11 +952,13 @@
         <v>43398</v>
       </c>
       <c r="B20" s="4">
-        <v>12</v>
-      </c>
-      <c r="C20" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="D20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="1"/>
@@ -896,12 +971,14 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>43399</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="1"/>
+        <v>43398</v>
+      </c>
+      <c r="B21" s="4">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="D21" s="1" t="s">
         <v>7</v>
       </c>
@@ -918,12 +995,14 @@
       <c r="A22" s="1">
         <v>43399</v>
       </c>
-      <c r="B22" s="4">
-        <v>23</v>
-      </c>
-      <c r="C22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="D22" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="1"/>
@@ -935,7 +1014,19 @@
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E23" s="1"/>
+      <c r="A23" s="1">
+        <v>43399</v>
+      </c>
+      <c r="B23" s="4">
+        <v>23</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="9"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1115,9 +1206,6 @@
       <c r="L40" s="1"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -1127,6 +1215,19 @@
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
     </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
   <si>
     <t>Deadline datum</t>
   </si>
@@ -506,7 +506,7 @@
   <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" activeCellId="1" sqref="E5 E6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -553,7 +553,7 @@
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="7"/>
@@ -577,7 +577,7 @@
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="8"/>
@@ -599,7 +599,9 @@
         <v>22</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="D4" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="E4" s="9"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
@@ -621,7 +623,7 @@
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="8"/>
@@ -669,7 +671,7 @@
       <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="7"/>
@@ -693,10 +695,10 @@
       <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="9"/>
+      <c r="D8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="7"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -718,7 +720,7 @@
       <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -740,7 +742,7 @@
       <c r="D10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -762,7 +764,7 @@
       <c r="D11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="9"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -781,7 +783,7 @@
       <c r="C12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E12" s="9"/>
@@ -803,7 +805,7 @@
       <c r="C13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E13" s="9"/>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -506,7 +506,7 @@
   <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -663,7 +663,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>43353</v>
+        <v>43383</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>43353</v>
+        <v>43383</v>
       </c>
       <c r="B8" s="4">
         <v>6</v>
@@ -698,7 +698,7 @@
       <c r="D8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="9"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -709,7 +709,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>43353</v>
+        <v>43383</v>
       </c>
       <c r="B9" s="4">
         <v>7</v>
@@ -720,7 +720,7 @@
       <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="E9" s="9"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -731,7 +731,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>43353</v>
+        <v>43383</v>
       </c>
       <c r="B10" s="5">
         <v>8</v>
@@ -742,7 +742,7 @@
       <c r="D10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="9"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -753,7 +753,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>43353</v>
+        <v>43383</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>27</v>
@@ -764,7 +764,7 @@
       <c r="D11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="9"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -506,7 +506,7 @@
   <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="1032" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -506,7 +506,7 @@
   <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -674,7 +674,7 @@
       <c r="D7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="8"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
         <v>21</v>
@@ -698,7 +698,7 @@
       <c r="D8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -720,7 +720,7 @@
       <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="8"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -742,7 +742,7 @@
       <c r="D10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="8"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -764,7 +764,7 @@
       <c r="D11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="9"/>
+      <c r="E11" s="8"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="1032" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="2064" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -506,7 +506,7 @@
   <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -698,7 +698,7 @@
       <c r="D8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="8"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -918,7 +918,7 @@
       <c r="D18" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="8"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -506,7 +506,7 @@
   <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E4" activeCellId="1" sqref="E3 E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -602,7 +602,7 @@
       <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="8"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
         <v>17</v>
@@ -918,7 +918,7 @@
       <c r="D18" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="7"/>
+      <c r="E18" s="8"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="2064" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="3096" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -506,7 +506,7 @@
   <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" activeCellId="1" sqref="E3 E4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -602,7 +602,7 @@
       <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
         <v>17</v>
@@ -786,7 +786,7 @@
       <c r="D12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
